--- a/exp/experiments.xlsx
+++ b/exp/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wordcount" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
   <si>
     <t>Binär</t>
   </si>
@@ -66,9 +66,6 @@
     <t>n = 5</t>
   </si>
   <si>
-    <t>Komrimiert?</t>
-  </si>
-  <si>
     <t xml:space="preserve">nein </t>
   </si>
   <si>
@@ -90,43 +87,41 @@
     <t>14215000 Sätze</t>
   </si>
   <si>
-    <t>1m40.452s</t>
-  </si>
-  <si>
-    <t>0m54.384s</t>
-  </si>
-  <si>
     <t>Mapper 3 / Reducer 1</t>
   </si>
   <si>
-    <t>2m1.521s</t>
-  </si>
-  <si>
-    <t>2m30.572s</t>
-  </si>
-  <si>
-    <t>2m43.849s</t>
-  </si>
-  <si>
-    <t>2m34.555s</t>
-  </si>
-  <si>
-    <t>2m48.632s</t>
-  </si>
-  <si>
-    <t>2m20.586s</t>
-  </si>
-  <si>
-    <t>1m59.519s</t>
-  </si>
-  <si>
-    <t>1m29.424s</t>
+    <t>Zeit (in s)</t>
+  </si>
+  <si>
+    <t>n = 3</t>
+  </si>
+  <si>
+    <t>iterationen = 25</t>
+  </si>
+  <si>
+    <t>Komprimiert?</t>
+  </si>
+  <si>
+    <t>Parallel mit 4 threads</t>
+  </si>
+  <si>
+    <t>Binäry Indexings</t>
+  </si>
+  <si>
+    <t>Producer = 1; Consumer = 3;</t>
+  </si>
+  <si>
+    <t>n-gramme (in Mio.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -214,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -275,8 +270,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -294,11 +300,118 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -320,8 +433,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="125">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -330,6 +449,60 @@
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -338,11 +511,274 @@
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="120"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="20"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'n-gram Wahrscheinlichkeiten'!$J$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n-gramme (in Mio.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'n-gram Wahrscheinlichkeiten'!$J$21:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.237254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.579308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.201367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.683229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.800694</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2073587768"/>
+        <c:axId val="-2073532408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2073587768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073532408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073532408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> n-gramme (in Mio.)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0305555555555555"/>
+              <c:y val="0.139821376494605"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073587768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E18"/>
+  <dimension ref="B4:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -680,144 +1116,166 @@
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" ht="25">
+    <row r="4" spans="2:6" ht="25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="23">
-      <c r="C8" s="10" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="23">
+      <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>54.017699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>99.209900000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20">
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>90.700699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>122.40770000000001</v>
+      </c>
+      <c r="F12">
+        <f xml:space="preserve"> (1-(E11/E12))*100</f>
+        <v>25.902782259612756</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20">
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>126.2225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20">
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>144.9667</v>
+      </c>
+      <c r="F14">
+        <f xml:space="preserve"> (1-(E13/E14))*100</f>
+        <v>12.930003925039346</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="20">
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>149.02080000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="20">
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>163.30199999999999</v>
+      </c>
+      <c r="F16">
+        <f xml:space="preserve"> (1-(E15/E16))*100</f>
+        <v>8.7452695006797079</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="20">
+      <c r="C17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="20">
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="20">
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="20">
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="20">
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="20">
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="20">
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="20">
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="20">
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="20">
-      <c r="C17" s="5">
+      <c r="E17" s="2">
+        <v>197.4297</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="20">
+      <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="20">
-      <c r="C18" s="5">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>162.34039999999999</v>
+      </c>
+      <c r="F18">
+        <f xml:space="preserve"> (1-(E17/E18))*100</f>
+        <v>-21.614644290638687</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -831,7 +1289,7 @@
   <dimension ref="B4:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -850,174 +1308,204 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20">
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="20">
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="24">
+        <v>3.5634114530800001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="20">
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="24">
+        <v>5.3562963299200002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="20">
-      <c r="C11" s="13" t="s">
+      <c r="F11" s="24">
+        <v>2.7969978487199998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20">
+      <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" ht="20">
-      <c r="C12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="25">
+        <v>4.9643265155199998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20">
+      <c r="C13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20">
+      <c r="C14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="20">
-      <c r="C13" s="13" t="s">
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="24">
+        <v>2.0475999999999999E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="20">
+      <c r="C15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" ht="20">
-      <c r="C14" s="13" t="s">
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="24">
+        <v>2.7315999999999999E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="20">
+      <c r="C16" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" ht="20">
-      <c r="C15" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="20">
-      <c r="C16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="F16" s="26">
+        <v>1.7508E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="20">
+      <c r="C17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="24">
+        <v>3.58560020759999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="20">
+      <c r="C18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="24">
+        <v>6.0728731331599999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="20">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="3:6" ht="20">
-      <c r="C17" s="13" t="s">
+      <c r="F19" s="24">
+        <v>3.46053711563999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="20">
+      <c r="C20" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="3:6" ht="20">
-      <c r="C18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:6" ht="20">
-      <c r="C19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="3:6" ht="20">
-      <c r="C20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="24">
+        <v>4.9965900198800002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1028,131 +1516,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F17"/>
+  <dimension ref="B3:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="42.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="25">
+    <row r="3" spans="2:7" ht="25">
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="23">
+      <c r="D7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="23">
-      <c r="D7" s="18" t="s">
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="23">
+        <v>5.4969451319999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="23">
+        <v>3.1029989485999998</v>
+      </c>
+      <c r="G9">
+        <f>(1-F9/F8)*100</f>
+        <v>43.550483512448487</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="20">
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="23">
+        <v>23.868201453000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="20">
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="23">
+        <v>8.5173420682999996</v>
+      </c>
+      <c r="G11">
+        <f>(1-F11/F10)*100</f>
+        <v>64.315107340316786</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="20">
+      <c r="D12" s="12">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="23">
+        <v>67.357196556600002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20">
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="23">
+        <v>24.961423799999999</v>
+      </c>
+      <c r="G13">
+        <f>(1-F13/F12)*100</f>
+        <v>62.941712131642817</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="F14" s="27"/>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1.2372540000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1.5793079999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3.2013669999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>39.683228999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="20">
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" ht="20">
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" ht="20">
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="20">
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" ht="20">
-      <c r="D12" s="13">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="20">
-      <c r="D13" s="13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" ht="20">
-      <c r="D14" s="13">
-        <v>4</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" ht="20">
-      <c r="D15" s="13">
-        <v>4</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="20">
-      <c r="D16" s="13">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="4:6" ht="20">
-      <c r="D17" s="13">
-        <v>5</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="J25">
+        <v>42.800694</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1163,48 +1703,119 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E6"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="25">
+    <row r="3" spans="2:6" ht="25">
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="23">
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="20">
-      <c r="D5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="20">
-      <c r="D6" s="22" t="s">
+    <row r="5" spans="2:6" ht="20">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="28">
+        <v>48.433864683279999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="28">
+        <v>1.7536670874</v>
+      </c>
+      <c r="F6">
+        <f>(1-E6/E5)*100</f>
+        <v>96.379254269987285</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="27">
+        <v>36.692655385160002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="20">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.99252403860000005</v>
+      </c>
+      <c r="F8">
+        <f>(1-E8/E7)*100</f>
+        <v>97.295033493265748</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="27">
+        <v>24.8993808022</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="27">
+        <v>6.5797355726799998</v>
+      </c>
+      <c r="F10">
+        <f>(1-E10/E9)*100</f>
+        <v>73.574702017896598</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
